--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\eclipse-workspace\auto_Api_testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270513A-C0FC-4046-BAE7-85A2A0178BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,113 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>HTTP request</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>TC0001</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>Get user by ID</t>
+  </si>
+  <si>
+    <t>Status code</t>
+  </si>
+  <si>
+    <t>Request body</t>
+  </si>
+  <si>
+    <t>path param : user ID</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Create new product</t>
+  </si>
+  <si>
+    <t>Delete product by ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update product </t>
+  </si>
+  <si>
+    <t>Get product</t>
+  </si>
+  <si>
+    <t>Get category</t>
+  </si>
+  <si>
+    <t>Create new category</t>
+  </si>
+  <si>
+    <t>Update category</t>
+  </si>
+  <si>
+    <t>Delete category</t>
+  </si>
+  <si>
+    <t>TC0002</t>
+  </si>
+  <si>
+    <t>TC0003</t>
+  </si>
+  <si>
+    <t>TC0004</t>
+  </si>
+  <si>
+    <t>TC0005</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>path param : category ID</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/category/{categoryName}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/user/getUser/{userID}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/category/{categoryID}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +138,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -45,14 +189,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +568,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{9038923D-3846-4C67-92B6-9E4CDEBC4944}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{E8BD3F9C-43A6-44EA-BE03-375D8D7F52A3}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{E4EFBA02-8870-4AA3-90F0-6DF8E3B59FFD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\eclipse-workspace\auto_Api_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270513A-C0FC-4046-BAE7-85A2A0178BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96F4FAF-4419-4862-ADA8-321970B60502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Test case</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Request body</t>
   </si>
   <si>
-    <t>path param : user ID</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>DEL</t>
   </si>
   <si>
-    <t>path param : category ID</t>
-  </si>
-  <si>
     <t>http://localhost:8080/api/category/{categoryName}</t>
   </si>
   <si>
@@ -124,6 +118,51 @@
   </si>
   <si>
     <t>http://localhost:8080/api/category/{categoryID}</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/category/updateCategory</t>
+  </si>
+  <si>
+    <t>TC0006</t>
+  </si>
+  <si>
+    <t>TC0007</t>
+  </si>
+  <si>
+    <t>TC0008</t>
+  </si>
+  <si>
+    <t>TC0009</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/category/deleteCategoryById/{categoryID}</t>
+  </si>
+  <si>
+    <t>path param : categoryID</t>
+  </si>
+  <si>
+    <t>path param : userID</t>
+  </si>
+  <si>
+    <t>param: categoryID, name</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/product/viewSingleProduct/</t>
+  </si>
+  <si>
+    <t>param: productID</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/product/deleteProductById/</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/product/addProduct/</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/api/product/updateMapping/</t>
+  </si>
+  <si>
+    <t>body</t>
   </si>
 </sst>
 </file>
@@ -275,9 +314,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -288,6 +326,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,201 +625,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17" style="15" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
-    </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="12">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="13">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{9038923D-3846-4C67-92B6-9E4CDEBC4944}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{E8BD3F9C-43A6-44EA-BE03-375D8D7F52A3}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{E4EFBA02-8870-4AA3-90F0-6DF8E3B59FFD}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{E8BD3F9C-43A6-44EA-BE03-375D8D7F52A3}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{E4EFBA02-8870-4AA3-90F0-6DF8E3B59FFD}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{E69CD53D-BEC3-47DC-AB24-5EDDB22BBAE8}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{FE26C0AB-3776-4A2E-BC8A-E6F9DC94782A}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{7E396842-EEB9-486C-A562-02F7D06F443B}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{273238F5-4834-4C94-9356-A4434D77B8E4}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{CDDBC02D-3365-494C-9A0C-1B361F5C050E}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{3AF259BF-6790-47F3-B4AB-6E3DE05B30F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmad\eclipse-workspace\auto_Api_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96F4FAF-4419-4862-ADA8-321970B60502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9DDDFE-EB60-45B3-B173-6E9F73B90268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,12 +57,6 @@
     <t>Request body</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Create new product</t>
   </si>
   <si>
@@ -163,6 +157,12 @@
   </si>
   <si>
     <t>body</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -628,12 +628,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="17" style="15" customWidth="1"/>
     <col min="5" max="5" width="58.6640625" customWidth="1"/>
@@ -664,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -675,185 +676,185 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="G2" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="14">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G4" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" s="14">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="G8" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G9" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" s="13">
         <v>200</v>
